--- a/ovary_2025_may.xlsx
+++ b/ovary_2025_may.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\pesquisa-bio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF93F2C2-A712-4145-B37D-93C997EE261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C4478-530D-47C6-9BFC-17756EF71F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BFCAABBE-2970-4592-9844-6A85260AFB1F}"/>
+    <workbookView xWindow="57480" yWindow="15945" windowWidth="29040" windowHeight="15720" xr2:uid="{BFCAABBE-2970-4592-9844-6A85260AFB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Amostra</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>D8-4</t>
+  </si>
+  <si>
+    <t>A8-4</t>
   </si>
 </sst>
 </file>
@@ -839,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8EA3E1-06F4-4028-8BC1-1F7D25846EBF}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,7 +1176,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2">
         <v>15.539700225511321</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>15.60257659705124</v>
